--- a/xlsx/北约_intext.xlsx
+++ b/xlsx/北约_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1043">
   <si>
     <t>北约</t>
   </si>
@@ -29,13 +29,13 @@
     <t>军事同盟</t>
   </si>
   <si>
-    <t>政策_政策_美國_北约</t>
+    <t>政策_政策_美国_北约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>北約秘書長</t>
+    <t>北约秘书长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E6%96%AF%C2%B7%E6%96%AF%E6%89%98%E5%B0%94%E6%BB%95%E8%B4%9D%E6%A0%BC</t>
@@ -245,19 +245,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94%E6%97%97</t>
   </si>
   <si>
-    <t>北大西洋公約組織旗</t>
+    <t>北大西洋公约组织旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -275,15 +275,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
   </si>
   <si>
@@ -359,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%831973%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安理會1973號決議</t>
+    <t>联合国安理会1973号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E5%A4%9A%E5%9B%BD%E6%AD%A6%E8%A3%85%E5%B9%B2%E6%B6%89%E5%88%A9%E6%AF%94%E4%BA%9A</t>
@@ -383,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97-%E4%BA%A8%E5%88%A9%C2%B7%E6%96%AF%E5%B7%B4%E5%85%8B</t>
@@ -395,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%8D%A1%E9%9D%88%E9%A0%93%EF%BC%8C%E7%AC%AC%E5%85%AD%E4%BB%A3%E5%8D%A1%E9%9D%88%E9%A0%93%E7%94%B7%E7%88%B5</t>
   </si>
   <si>
-    <t>彼得·卡靈頓，第六代卡靈頓男爵</t>
+    <t>彼得·卡灵顿，第六代卡灵顿男爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BB%B4%E5%B0%94%C2%B7%E7%B4%A2%E6%8B%89%E7%BA%B3</t>
@@ -419,15 +413,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%81%AF%E9%82%A6%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>德國聯邦國防軍</t>
+    <t>德国联邦国防军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
@@ -443,19 +434,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯邦德國</t>
+    <t>联邦德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%81%AF%E9%AB%94</t>
   </si>
   <si>
-    <t>獨聯體</t>
+    <t>独联体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7%E4%B8%89%E5%9B%BD</t>
@@ -467,19 +455,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AD%90</t>
   </si>
   <si>
-    <t>中歐</t>
+    <t>中欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%90</t>
   </si>
   <si>
-    <t>東歐</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80</t>
@@ -509,25 +494,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>奧巴馬</t>
+    <t>奥巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%9B%BE%E6%88%98%E6%96%97%E7%B3%BB%E7%BB%9F</t>
@@ -539,25 +518,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E8%A6%AA%E6%AD%90%E7%9B%9F%E7%A4%BA%E5%A8%81%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>烏克蘭親歐盟示威運動</t>
+    <t>乌克兰亲欧盟示威运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%85%8B%E9%87%8C%E7%B1%B3%E4%BA%9E%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>2014年克里米亞危機</t>
+    <t>2014年克里米亚危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>南斯拉夫內戰</t>
+    <t>南斯拉夫内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
@@ -581,19 +560,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
@@ -623,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -641,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -653,13 +632,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -689,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
@@ -731,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -749,13 +728,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -791,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -803,15 +782,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
   </si>
   <si>
-    <t>荷兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
   </si>
   <si>
@@ -821,13 +797,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%BE%B7%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>兩德統一</t>
+    <t>两德统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>北大西洋公約組織</t>
+    <t>北大西洋公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
@@ -857,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94%E6%97%97%E5%B9%9F</t>
   </si>
   <si>
-    <t>北大西洋公約組織旗幟</t>
+    <t>北大西洋公约组织旗帜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E6%9C%89%E6%A0%B8%E6%AD%A6%E5%99%A8</t>
@@ -869,13 +845,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E8%87%AA%E8%A1%9B%E6%AC%8A</t>
   </si>
   <si>
-    <t>集體自衛權</t>
+    <t>集体自卫权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E5%BA%AB%E5%AD%98%E7%B7%A8%E8%99%9F</t>
   </si>
   <si>
-    <t>北約庫存編號</t>
+    <t>北约库存编号</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NATO_Military_Symbols_for_Land_Based_Systems</t>
@@ -893,13 +869,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
   </si>
   <si>
-    <t>主要非北約盟友</t>
+    <t>主要非北约盟友</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>Template talk-北大西洋公約組織</t>
+    <t>Template talk-北大西洋公约组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NATO_summit</t>
@@ -917,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
   </si>
   <si>
-    <t>北約擴張</t>
+    <t>北约扩张</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/North_Atlantic_Council</t>
@@ -959,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>比利時國防軍</t>
+    <t>比利时国防军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Army_of_the_Czech_Republic</t>
@@ -971,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>丹麥國防軍</t>
+    <t>丹麦国防军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Estonia_Defence_Forces</t>
@@ -983,13 +959,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E8%81%94%E9%82%A6%E5%9B%BD%E9%98%B2%E5%86%9B</t>
   </si>
   <si>
-    <t>德国联邦国防军</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>希臘軍隊</t>
+    <t>希腊军队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Military_of_Iceland</t>
@@ -1013,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>波蘭軍事</t>
+    <t>波兰军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A%E6%AD%A6%E8%A3%85%E9%83%A8%E9%98%9F</t>
@@ -1079,25 +1052,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
   </si>
   <si>
-    <t>冷战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%B6%93%E6%BF%9F%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲經濟共同體</t>
+    <t>欧洲经济共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%AE%89%E5%85%A8%E4%BF%9D%E9%9A%9C%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>太平洋安全保障條約</t>
+    <t>太平洋安全保障条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E%E6%A2%9D%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>東南亞條約組織</t>
+    <t>东南亚条约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -1127,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>阿拉伯國家聯盟</t>
+    <t>阿拉伯国家联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%89%E5%8F%96%E8%BF%9B%E6%AD%A5%E8%81%94%E7%9B%9F</t>
@@ -1139,13 +1109,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>中部公約組織</t>
+    <t>中部公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>世界自由民主聯盟</t>
+    <t>世界自由民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
@@ -1169,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B%E8%BB%8D%E4%BA%8B%E4%BD%94%E9%A0%98%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>同盟國軍事佔領德國</t>
+    <t>同盟国军事佔领德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E7%BA%B3%E7%B2%B9%E5%8C%96</t>
@@ -1211,13 +1181,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E5%BE%B7%E6%94%BF%E7%AD%96%E7%9A%84%E9%87%8D%E8%BF%B0</t>
   </si>
   <si>
-    <t>對德政策的重述</t>
+    <t>对德政策的重述</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%8D%B0%E5%BA%A6%E6%94%AF%E9%82%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第一次印度支那戰爭</t>
+    <t>第一次印度支那战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A%E7%8B%AC%E7%AB%8B%E9%9D%A9%E5%91%BD</t>
@@ -1235,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%97%9C%E4%BF%82%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>亞洲關係會議</t>
+    <t>亚洲关系会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%AD%87%E5%B0%94%E8%AE%A1%E5%88%92</t>
@@ -1265,13 +1235,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%B0%81%E9%8E%96</t>
   </si>
   <si>
-    <t>柏林封鎖</t>
+    <t>柏林封锁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E7%9B%9F%E5%9C%8B%E7%9A%84%E8%83%8C%E5%8F%9B</t>
   </si>
   <si>
-    <t>西方盟國的背叛</t>
+    <t>西方盟国的背叛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E5%B9%95</t>
@@ -1283,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東方集團</t>
+    <t>东方集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%9B%BD%E5%85%B1%E5%86%85%E6%88%98</t>
@@ -1295,19 +1265,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%9C%81%E6%88%92%E5%9A%B4%E4%BB%A4</t>
   </si>
   <si>
-    <t>臺灣省戒嚴令</t>
+    <t>台湾省戒严令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E4%BA%9E%E7%B7%8A%E6%80%A5%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>馬來亞緊急狀態</t>
+    <t>马来亚紧急状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%89%98%E5%A4%AB%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>莫洛托夫計劃</t>
+    <t>莫洛托夫计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E5%B9%95</t>
@@ -1319,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%A3%AE%E5%A0%A1%E5%A4%AB%E5%A9%A6</t>
   </si>
   <si>
-    <t>羅森堡夫婦</t>
+    <t>罗森堡夫妇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
@@ -1331,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/1953%E5%B9%B4%E4%BC%8A%E6%9C%97%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1953年伊朗政變</t>
+    <t>1953年伊朗政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%BE%B7%E5%85%AD%E4%B8%80%E4%B8%83%E4%BA%8B%E4%BB%B6</t>
@@ -1355,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B5%B7%E5%B3%BD%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>臺灣海峽危機</t>
+    <t>台湾海峡危机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Geneva_Summit_(1955)</t>
@@ -1373,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8C%B2%E5%8D%97%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>波茲南事件</t>
+    <t>波兹南事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E5%8D%81%E6%9C%88%E4%BA%8B%E4%BB%B6</t>
@@ -1421,7 +1391,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%9A%86%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>萬隆會議</t>
+    <t>万隆会议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bricker_Amendment</t>
@@ -1457,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%97%A5%E5%AE%89%E4%BF%9D%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>美日安保條約</t>
+    <t>美日安保条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B8%80%E4%B9%9D%E9%9D%A9%E5%91%BD</t>
@@ -1469,13 +1439,13 @@
     <t>https://zh.wikipedia.org/wiki/1960%E5%B9%B4U-2%E6%93%8A%E5%A2%9C%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>1960年U-2擊墜事件</t>
+    <t>1960年U-2击坠事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>東方一號</t>
+    <t>东方一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AA%E6%B9%BE%E4%BA%8B%E4%BB%B6</t>
@@ -1487,13 +1457,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%9C%8D%E7%89%86</t>
   </si>
   <si>
-    <t>柏林圍牆</t>
+    <t>柏林围墙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E6%AE%96%E6%B0%91%E5%9C%B0%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>葡萄牙殖民地戰爭</t>
+    <t>葡萄牙殖民地战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%AF%BC%E5%BC%B9%E5%8D%B1%E6%9C%BA</t>
@@ -1505,13 +1475,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E5%88%86%E7%A6%81%E6%AD%A2%E6%A0%B8%E8%A9%A6%E9%A9%97%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>部分禁止核試驗條約</t>
+    <t>部分禁止核试验条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B_(1965%E5%B9%B4%E8%87%B31966%E5%B9%B4)</t>
   </si>
   <si>
-    <t>美國佔領多明尼加共和國 (1965年至1966年)</t>
+    <t>美国佔领多明尼加共和国 (1965年至1966年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
@@ -1529,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>南非種族隔離</t>
+    <t>南非种族隔离</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/South_African_Border_War</t>
@@ -1553,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>寮國內戰</t>
+    <t>寮国内战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Argentine_Revolution</t>
@@ -1565,13 +1535,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%BB%8D%E6%94%BF%E5%BA%9C%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>希臘軍政府時期</t>
+    <t>希腊军政府时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%9F%8B%E5%B8%83%E6%B4%9B%E8%99%9F%E9%80%9A%E7%94%A8%E7%92%B0%E5%A2%83%E7%A0%94%E7%A9%B6%E8%89%A6</t>
   </si>
   <si>
-    <t>普韋布洛號通用環境研究艦</t>
+    <t>普韦布洛号通用环境研究舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -1595,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%96%87%E5%8C%96%E5%BE%A9%E8%88%88%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>中華文化復興運動</t>
+    <t>中华文化复兴运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%B0%E8%BE%B9%E5%A2%83%E6%88%98%E4%BA%89</t>
@@ -1655,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BE%8511%E8%99%9F</t>
   </si>
   <si>
-    <t>阿波羅11號</t>
+    <t>阿波罗11号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%93%E5%92%8C%E6%94%BF%E7%AD%96</t>
@@ -1685,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>柬埔寨內戰</t>
+    <t>柬埔寨内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%89%B2%E4%B9%9D%E6%9C%88</t>
@@ -1715,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1972%E5%B9%B4%E5%B0%BC%E5%85%8B%E6%9D%BE%E8%AE%BF%E5%8D%8E</t>
@@ -1727,13 +1697,13 @@
     <t>https://zh.wikipedia.org/wiki/1973%E5%B9%B4%E6%99%BA%E5%88%A9%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1973年智利政變</t>
+    <t>1973年智利政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%96%E7%BD%AA%E6%97%A5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>贖罪日戰爭</t>
+    <t>赎罪日战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1973_Thai_popular_uprising</t>
@@ -1763,7 +1733,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E%E5%8F%A2%E6%9E%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>羅德西亞叢林戰爭</t>
+    <t>罗德西亚丛林战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89%E5%86%85%E6%88%98</t>
@@ -1775,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>莫三比克內戰</t>
+    <t>莫三比克内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E9%97%A8%E5%BA%97%E4%BA%8B%E4%BB%B6</t>
@@ -1787,25 +1757,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%8A%A0%E7%99%BB%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>歐加登戰爭</t>
+    <t>欧加登战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>衣索比亞內戰</t>
+    <t>衣索比亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>柬越戰爭</t>
+    <t>柬越战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1979%E5%B9%B4%E4%B8%AD%E8%B6%8A%E6%88%98%E4%BA%89</t>
@@ -1823,19 +1793,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭革命</t>
+    <t>伊朗伊斯兰革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%80%E9%B7%B9%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>兀鷹行動</t>
+    <t>兀鹰行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AA%AF%E9%AB%92%E6%88%B0%E7%88%AD_(%E9%98%BF%E6%A0%B9%E5%BB%B7)</t>
   </si>
   <si>
-    <t>骯髒戰爭 (阿根廷)</t>
+    <t>肮脏战争 (阿根廷)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD%E8%A7%A3%E6%94%BE%E6%88%98%E4%BA%89</t>
@@ -1853,13 +1823,13 @@
     <t>https://zh.wikipedia.org/wiki/1978%E5%B9%B4%E5%8D%97%E9%BB%8E%E5%B7%B4%E5%AB%A9%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>1978年南黎巴嫩衝突</t>
+    <t>1978年南黎巴嫩冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%98%E4%BA%89_(1979%E5%B9%B4)</t>
@@ -1877,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>福克蘭群島戰爭</t>
+    <t>福克兰群岛战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -1907,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E7%B5%90%E5%B7%A5%E8%81%AF</t>
   </si>
   <si>
-    <t>團結工聯</t>
+    <t>团结工联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E4%BC%8A%E6%88%98%E4%BA%89</t>
@@ -1925,13 +1895,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E8%88%AA%E7%A9%BA007%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>大韓航空007號班機空難</t>
+    <t>大韩航空007号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1983%E5%B9%B4%E5%84%AA%E7%A7%80%E5%B0%84%E6%89%8B%E6%BC%94%E7%BF%92</t>
   </si>
   <si>
-    <t>1983年優秀射手演習</t>
+    <t>1983年优秀射手演习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%90%83%E5%A4%A7%E6%88%98%E8%AE%A1%E5%88%92</t>
@@ -1943,13 +1913,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E6%96%B0%E9%96%8B%E6%94%BE</t>
   </si>
   <si>
-    <t>革新開放</t>
+    <t>革新开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%8A%9B%E9%87%8F%E9%9D%A9%E5%91%BD_(1986%E5%B9%B4)</t>
@@ -1967,19 +1937,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%A4%A7%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>第一次巴勒斯坦大起義</t>
+    <t>第一次巴勒斯坦大起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E8%88%AA%E7%A9%BA655%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>伊朗航空655號班機空難</t>
+    <t>伊朗航空655号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/8888%E6%B0%91%E4%B8%BB%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>8888民主運動</t>
+    <t>8888民主运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1988%E5%B9%B4%E6%99%BA%E5%88%A9%E5%85%AC%E6%8A%95</t>
@@ -2009,19 +1979,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7%E4%B9%8B%E8%B7%AF</t>
   </si>
   <si>
-    <t>波羅的海之路</t>
+    <t>波罗的海之路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>天鵝絨革命</t>
+    <t>天鹅绒革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1989%E5%B9%B4%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1989年羅馬尼亞革命</t>
+    <t>1989年罗马尼亚革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%80%9D%E7%BB%B4_(%E8%8B%8F%E8%81%94)</t>
@@ -2039,13 +2009,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>開放政策</t>
+    <t>开放政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>天鵝絨分離</t>
+    <t>天鹅绒分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E8%92%99%E5%8F%A4%E6%B0%91%E4%B8%BB%E9%9D%A9%E5%91%BD</t>
@@ -2057,13 +2027,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%96%80%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>也門統一</t>
+    <t>也门统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E8%A7%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>南斯拉夫解體</t>
+    <t>南斯拉夫解体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E6%88%98%E4%BA%89</t>
@@ -2081,19 +2051,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦調查局</t>
+    <t>联邦调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家安全局</t>
+    <t>美国国家安全局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>秘密情報局</t>
+    <t>秘密情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%A0%BC%E5%8B%83</t>
@@ -2111,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%83%85%E5%A0%B1%E5%8F%8A%E7%89%B9%E6%AE%8A%E4%BD%BF%E5%91%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>以色列情報及特殊使命局</t>
+    <t>以色列情报及特殊使命局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E5%A4%96%E6%83%85%E6%8A%A5%E5%92%8C%E5%8F%8D%E9%97%B4%E8%B0%8D%E5%B1%80</t>
@@ -2129,13 +2099,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%BB%8D%E5%82%99%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>核軍備競賽</t>
+    <t>核军备竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>太空競賽</t>
+    <t>太空竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%B4%E5%A0%B5%E6%94%BF%E7%AD%96</t>
@@ -2153,7 +2123,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E8%AB%BE%E9%AA%A8%E7%89%8C%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>多米諾骨牌理論</t>
+    <t>多米诺骨牌理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kennedy_Doctrine</t>
@@ -2183,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E6%A3%AE%E4%B8%BB%E7%BE%A9_(%E5%A4%96%E4%BA%A4)</t>
   </si>
   <si>
-    <t>詹森主義 (外交)</t>
+    <t>詹森主义 (外交)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E5%88%97%E6%97%A5%E6%B6%85%E5%A4%AB%E4%B8%BB%E4%B9%89</t>
@@ -2195,19 +2165,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%A3%AE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>尼克森主義</t>
+    <t>尼克森主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B8%83%E5%88%A9%E5%B8%8C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>烏布利希主義</t>
+    <t>乌布利希主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>卡特主義</t>
+    <t>卡特主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%A0%B9%E4%B8%BB%E4%B9%89</t>
@@ -2261,25 +2231,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新古典經濟學派</t>
+    <t>新古典经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
+    <t>芝加哥经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%88%87%E5%B0%94%E4%B8%BB%E4%B9%89</t>
@@ -2291,13 +2261,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教民主主義</t>
+    <t>基督教民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新保守主義</t>
+    <t>新保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -2357,7 +2327,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E9%AD%AF%E6%9B%89%E5%A4%AB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>赫魯曉夫主義</t>
+    <t>赫鲁晓夫主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E6%89%98%E4%B8%BB%E4%B9%89</t>
@@ -2381,7 +2351,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%93%A6%E6%8B%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>格瓦拉主義</t>
+    <t>格瓦拉主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%8B%89%E4%BB%80%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -2411,13 +2381,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>錫安主義</t>
+    <t>锡安主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>三民主義</t>
+    <t>三民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%BB%E4%B9%89</t>
@@ -2435,7 +2405,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>解放神學</t>
+    <t>解放神学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Active_measures</t>
@@ -2483,13 +2453,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6%E5%8D%97%E5%8C%97%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>朝鮮半島南北關係</t>
+    <t>朝鲜半岛南北关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E6%81%90%E6%85%8C</t>
@@ -2501,13 +2471,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AB%E6%97%A5%E4%B9%8B%E9%90%98</t>
   </si>
   <si>
-    <t>末日之鐘</t>
+    <t>末日之钟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%9C%B0%E8%AB%BE%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>桑地諾民族解放陣線</t>
+    <t>桑地诺民族解放阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -2519,7 +2489,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E7%B7%A3%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>邊緣政策</t>
+    <t>边缘政策</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NATO%E2%80%93Russia_relations</t>
@@ -2537,13 +2507,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>美蘇關係</t>
+    <t>美苏关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%A6%96%E8%85%A6%E6%9C%83%E8%AD%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美蘇首腦會議列表</t>
+    <t>美苏首脑会议列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_conflicts_related_to_the_Cold_War</t>
@@ -2567,7 +2537,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%9C%8B%E5%AE%B6%E4%B8%BB%E7%BE%A9_(%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82)</t>
   </si>
   <si>
-    <t>超國家主義 (國際關係)</t>
+    <t>超国家主义 (国际关系)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%BB%E4%B9%89</t>
@@ -2585,7 +2555,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>政府間主義</t>
+    <t>政府间主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
@@ -2603,13 +2573,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%92%8C%E5%B9%B3%E8%AB%96</t>
   </si>
   <si>
-    <t>民主和平論</t>
+    <t>民主和平论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80%E5%A4%96%E4%BA%A4</t>
   </si>
   <si>
-    <t>價值觀外交</t>
+    <t>价值观外交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%B8%9D%E5%9B%BD</t>
@@ -2633,7 +2603,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>全球主義</t>
+    <t>全球主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -2681,7 +2651,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際標準化組織</t>
+    <t>国际标准化组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
@@ -2717,7 +2687,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>突厥議會</t>
+    <t>突厥议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AE%BE%E4%BB%B2%E8%A3%81%E6%B3%95%E9%99%A2</t>
@@ -2765,7 +2735,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>柬埔寨法院特別法庭</t>
+    <t>柬埔寨法院特别法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82%E7%89%B9%E5%88%AB%E6%B3%95%E5%BA%AD</t>
@@ -2831,7 +2801,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E5%AE%89%E5%85%A8%E6%9D%A1%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -2843,7 +2813,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲委員會</t>
+    <t>欧洲委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
@@ -2867,9 +2837,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
-    <t>阿拉伯国家联盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%BC%9A%E8%AE%AE%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
@@ -2897,7 +2864,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E7%B5%B1%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>中美洲統合體</t>
+    <t>中美洲统合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -2915,13 +2882,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>南方共同市場</t>
+    <t>南方共同市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9F%BA%E7%A1%80%E8%AE%BE%E6%96%BD%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
@@ -2975,7 +2942,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F%E5%9F%BA%E6%9C%AC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>歐洲聯盟基本條約</t>
+    <t>欧洲联盟基本条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E6%B3%95%E5%BE%8B</t>
@@ -2987,7 +2954,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>巴黎協議</t>
+    <t>巴黎协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%81%94%E7%9B%9F</t>
@@ -3005,7 +2972,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E4%BA%9E%E5%85%B1%E6%A6%AE%E5%9C%88</t>
   </si>
   <si>
-    <t>大東亞共榮圈</t>
+    <t>大东亚共荣圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
@@ -3035,19 +3002,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%85%E5%B7%B4%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>歐羅巴合眾國</t>
+    <t>欧罗巴合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>東亞共同體</t>
+    <t>东亚共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>中華聯邦</t>
+    <t>中华联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BA%A2%E5%8D%81%E5%AD%97%E4%B8%8E%E7%BA%A2%E6%96%B0%E6%9C%88%E8%BF%90%E5%8A%A8</t>
@@ -3089,7 +3056,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3107,7 +3074,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3125,7 +3092,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3149,13 +3116,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4765,7 +4732,7 @@
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -4791,10 +4758,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -4820,10 +4787,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4849,10 +4816,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>20</v>
@@ -4878,10 +4845,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -4907,10 +4874,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -4936,10 +4903,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -4965,10 +4932,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4994,10 +4961,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -5023,10 +4990,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>4</v>
@@ -5052,10 +5019,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -5081,10 +5048,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -5110,10 +5077,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -5139,10 +5106,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -5168,10 +5135,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -5197,10 +5164,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -5226,10 +5193,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5255,10 +5222,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5284,10 +5251,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -5313,10 +5280,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5342,10 +5309,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5371,10 +5338,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -5400,10 +5367,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5429,10 +5396,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5458,10 +5425,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5487,10 +5454,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5516,10 +5483,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -5545,10 +5512,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -5574,10 +5541,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G71" t="n">
         <v>8</v>
@@ -5603,10 +5570,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5632,10 +5599,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5661,10 +5628,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -5690,10 +5657,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5719,10 +5686,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5748,10 +5715,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -5777,10 +5744,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -5806,10 +5773,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G79" t="n">
         <v>7</v>
@@ -5835,10 +5802,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -5864,10 +5831,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -5893,10 +5860,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -5922,10 +5889,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -5951,10 +5918,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5980,10 +5947,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -6009,10 +5976,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -6038,10 +6005,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6067,10 +6034,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6096,10 +6063,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6125,10 +6092,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6154,10 +6121,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6183,10 +6150,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G92" t="n">
         <v>7</v>
@@ -6212,10 +6179,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -6241,10 +6208,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6270,10 +6237,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F95" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6299,10 +6266,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -6328,10 +6295,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -6357,10 +6324,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6386,10 +6353,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -6415,10 +6382,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -6444,10 +6411,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -6473,10 +6440,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -6502,10 +6469,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -6531,10 +6498,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -6560,10 +6527,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6589,10 +6556,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6618,10 +6585,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6647,10 +6614,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -6676,10 +6643,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6705,10 +6672,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6734,10 +6701,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -6763,10 +6730,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6792,10 +6759,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6821,10 +6788,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6850,10 +6817,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6879,10 +6846,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -6908,10 +6875,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6937,10 +6904,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6966,10 +6933,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6995,10 +6962,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7024,10 +6991,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7053,10 +7020,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7082,10 +7049,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7111,10 +7078,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7140,10 +7107,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7169,10 +7136,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7198,10 +7165,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -7227,10 +7194,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -7256,10 +7223,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -7285,10 +7252,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -7314,10 +7281,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7343,10 +7310,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -7372,10 +7339,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -7401,10 +7368,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7430,10 +7397,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>48</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -7459,10 +7426,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7488,10 +7455,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -7517,10 +7484,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>31</v>
@@ -7546,10 +7513,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7575,10 +7542,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -7604,10 +7571,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7633,10 +7600,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7662,10 +7629,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7691,10 +7658,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7720,10 +7687,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7749,10 +7716,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7778,10 +7745,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7807,10 +7774,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7836,10 +7803,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7865,10 +7832,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>14</v>
@@ -7894,10 +7861,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7923,10 +7890,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7952,10 +7919,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7981,10 +7948,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -8010,10 +7977,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F155" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8039,10 +8006,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8068,10 +8035,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8097,10 +8064,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8126,10 +8093,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -8155,10 +8122,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8184,10 +8151,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8213,10 +8180,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8242,10 +8209,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8271,10 +8238,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8300,10 +8267,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>132</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8329,10 +8296,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -8358,10 +8325,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8387,10 +8354,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8416,10 +8383,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8445,10 +8412,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8474,10 +8441,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8503,10 +8470,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8532,10 +8499,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8561,10 +8528,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8590,10 +8557,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8619,10 +8586,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8648,10 +8615,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8677,10 +8644,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8706,10 +8673,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8735,10 +8702,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8764,10 +8731,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>173</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -8793,10 +8760,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8822,10 +8789,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8851,10 +8818,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8880,10 +8847,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -8909,10 +8876,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8938,10 +8905,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8967,10 +8934,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F188" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8996,10 +8963,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9025,10 +8992,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9054,10 +9021,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9083,10 +9050,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9112,10 +9079,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9141,10 +9108,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9170,10 +9137,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9199,10 +9166,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9228,10 +9195,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9257,10 +9224,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9286,10 +9253,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9315,10 +9282,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9344,10 +9311,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9373,10 +9340,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9402,10 +9369,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9431,10 +9398,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9460,10 +9427,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9489,10 +9456,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9518,10 +9485,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9547,10 +9514,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9576,10 +9543,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9605,10 +9572,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9634,10 +9601,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9663,10 +9630,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9692,10 +9659,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9721,10 +9688,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9750,10 +9717,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -9779,10 +9746,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9808,10 +9775,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9837,10 +9804,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9866,10 +9833,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9895,10 +9862,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9924,10 +9891,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9953,10 +9920,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9982,10 +9949,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10011,10 +9978,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10040,10 +10007,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10069,10 +10036,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10098,10 +10065,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10127,10 +10094,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10156,10 +10123,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10185,10 +10152,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10214,10 +10181,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10243,10 +10210,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10272,10 +10239,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10301,10 +10268,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10330,10 +10297,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10359,10 +10326,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10388,10 +10355,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10417,10 +10384,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10446,10 +10413,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10475,10 +10442,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10504,10 +10471,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10533,10 +10500,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10562,10 +10529,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10591,10 +10558,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10620,10 +10587,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10649,10 +10616,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10678,10 +10645,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10707,10 +10674,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10736,10 +10703,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10765,10 +10732,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10794,10 +10761,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10823,10 +10790,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10852,10 +10819,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10881,10 +10848,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10910,10 +10877,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10939,10 +10906,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10968,10 +10935,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10997,10 +10964,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11026,10 +10993,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11055,10 +11022,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11084,10 +11051,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11113,10 +11080,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11142,10 +11109,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11171,10 +11138,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11200,10 +11167,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11229,10 +11196,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11258,10 +11225,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11287,10 +11254,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11316,10 +11283,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11345,10 +11312,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11374,10 +11341,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11403,10 +11370,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11432,10 +11399,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11461,10 +11428,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11490,10 +11457,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11519,10 +11486,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11548,10 +11515,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11577,10 +11544,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11606,10 +11573,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11635,10 +11602,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11664,10 +11631,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11693,10 +11660,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11722,10 +11689,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11751,10 +11718,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11780,10 +11747,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11809,10 +11776,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11838,10 +11805,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11867,10 +11834,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11896,10 +11863,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11925,10 +11892,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11954,10 +11921,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11983,10 +11950,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F292" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12012,10 +11979,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F293" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12041,10 +12008,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12070,10 +12037,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12099,10 +12066,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F296" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12128,10 +12095,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F297" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12157,10 +12124,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F298" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12186,10 +12153,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F299" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12215,10 +12182,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F300" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12244,10 +12211,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F301" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12273,10 +12240,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F302" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12302,10 +12269,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="F303" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12331,10 +12298,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F304" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12360,10 +12327,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F305" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12389,10 +12356,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="F306" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12418,10 +12385,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F307" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12447,10 +12414,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F308" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12476,10 +12443,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F309" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12505,10 +12472,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F310" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12534,10 +12501,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F311" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12563,10 +12530,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F312" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12592,10 +12559,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F313" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12621,10 +12588,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F314" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12650,10 +12617,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F315" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12679,10 +12646,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12708,10 +12675,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12737,10 +12704,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F318" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12766,10 +12733,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12795,10 +12762,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12824,10 +12791,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12853,10 +12820,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12882,10 +12849,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12911,10 +12878,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12940,10 +12907,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12969,10 +12936,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12998,10 +12965,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F327" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13027,10 +12994,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F328" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13056,10 +13023,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F329" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13085,10 +13052,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F330" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13114,10 +13081,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F331" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13143,10 +13110,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F332" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13172,10 +13139,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F333" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13201,10 +13168,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F334" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13230,10 +13197,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F335" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13259,10 +13226,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F336" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13288,10 +13255,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F337" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13317,10 +13284,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F338" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13346,10 +13313,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="F339" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13375,10 +13342,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F340" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13404,10 +13371,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="F341" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13433,10 +13400,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F342" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13462,10 +13429,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F343" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13491,10 +13458,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F344" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13520,10 +13487,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F345" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13549,10 +13516,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F346" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13578,10 +13545,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F347" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13607,10 +13574,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F348" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13636,10 +13603,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F349" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13665,10 +13632,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F350" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13694,10 +13661,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F351" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13723,10 +13690,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F352" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13752,10 +13719,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F353" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13781,10 +13748,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F354" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13810,10 +13777,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F355" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13839,10 +13806,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F356" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13868,10 +13835,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F357" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13897,10 +13864,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F358" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -13926,10 +13893,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F359" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13955,10 +13922,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F360" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13984,10 +13951,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F361" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14013,10 +13980,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F362" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14042,10 +14009,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F363" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14071,10 +14038,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F364" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14100,10 +14067,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F365" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14129,10 +14096,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F366" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14158,10 +14125,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F367" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14187,10 +14154,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F368" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14216,10 +14183,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F369" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14245,10 +14212,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="F370" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14274,10 +14241,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F371" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14303,10 +14270,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F372" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14332,10 +14299,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F373" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14361,10 +14328,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F374" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14390,10 +14357,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F375" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14419,10 +14386,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F376" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G376" t="n">
         <v>3</v>
@@ -14448,10 +14415,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F377" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14477,10 +14444,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F378" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14506,10 +14473,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F379" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14535,10 +14502,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F380" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14564,10 +14531,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F381" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14593,10 +14560,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="F382" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14622,10 +14589,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F383" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14651,10 +14618,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F384" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14680,10 +14647,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="F385" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14709,10 +14676,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F386" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14738,10 +14705,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F387" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14767,10 +14734,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F388" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="G388" t="n">
         <v>4</v>
@@ -14796,10 +14763,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F389" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14825,10 +14792,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F390" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14854,10 +14821,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F391" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14883,10 +14850,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F392" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14912,10 +14879,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="F393" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14941,10 +14908,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="F394" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14970,10 +14937,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F395" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14999,10 +14966,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="F396" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15028,10 +14995,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F397" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15057,10 +15024,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F398" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15086,10 +15053,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="F399" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15115,10 +15082,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F400" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15144,10 +15111,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F401" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15173,10 +15140,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="F402" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15202,10 +15169,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="F403" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15231,10 +15198,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="F404" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15260,10 +15227,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="F405" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15289,10 +15256,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F406" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15318,10 +15285,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="F407" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15347,10 +15314,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="F408" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15376,10 +15343,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F409" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15405,10 +15372,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F410" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15434,10 +15401,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="F411" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15463,10 +15430,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="F412" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15492,10 +15459,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="F413" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15521,10 +15488,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="F414" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15550,10 +15517,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="F415" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15579,10 +15546,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="F416" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15608,10 +15575,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="F417" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15637,10 +15604,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="F418" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15666,10 +15633,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="F419" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15695,10 +15662,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="F420" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15724,10 +15691,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="F421" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15753,10 +15720,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F422" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15782,10 +15749,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="F423" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15811,10 +15778,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F424" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="G424" t="n">
         <v>4</v>
@@ -15840,10 +15807,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="F425" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15869,10 +15836,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="F426" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15898,10 +15865,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="F427" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15927,10 +15894,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="F428" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15956,10 +15923,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="F429" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15985,10 +15952,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="F430" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16014,10 +15981,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F431" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="G431" t="n">
         <v>2</v>
@@ -16043,10 +16010,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="F432" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="G432" t="n">
         <v>2</v>
@@ -16072,10 +16039,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="F433" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16101,10 +16068,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="F434" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16130,10 +16097,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="F435" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16159,10 +16126,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="F436" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16188,10 +16155,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F437" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16217,10 +16184,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="F438" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16246,10 +16213,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="F439" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16275,10 +16242,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="F440" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16304,10 +16271,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="F441" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16333,10 +16300,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F442" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16362,10 +16329,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="F443" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="G443" t="n">
         <v>4</v>
@@ -16391,10 +16358,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="F444" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16420,10 +16387,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="F445" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16449,10 +16416,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="F446" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16478,10 +16445,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="F447" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16507,10 +16474,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="F448" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16536,10 +16503,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="F449" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16565,10 +16532,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="F450" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16594,10 +16561,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F451" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16623,10 +16590,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="F452" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16652,10 +16619,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="F453" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16681,10 +16648,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="F454" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16710,10 +16677,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="F455" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16739,10 +16706,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="F456" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16768,10 +16735,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="F457" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16797,10 +16764,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F458" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16826,10 +16793,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="F459" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16855,10 +16822,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="F460" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16884,10 +16851,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="F461" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -16913,10 +16880,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="F462" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16942,10 +16909,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="F463" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16971,10 +16938,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="F464" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17000,10 +16967,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="F465" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17029,10 +16996,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="F466" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17058,10 +17025,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="F467" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17087,10 +17054,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="F468" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17116,10 +17083,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="F469" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17145,10 +17112,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="F470" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17174,10 +17141,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F471" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17203,10 +17170,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="F472" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17232,10 +17199,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="F473" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17261,10 +17228,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="F474" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17290,10 +17257,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="F475" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17319,10 +17286,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="F476" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17348,10 +17315,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="F477" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17377,10 +17344,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="F478" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17406,10 +17373,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="F479" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17435,10 +17402,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="F480" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17464,10 +17431,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="F481" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17493,10 +17460,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="F482" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17522,10 +17489,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="F483" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17551,10 +17518,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="F484" t="s">
-        <v>950</v>
+        <v>360</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17580,10 +17547,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="F485" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17609,10 +17576,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="F486" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17638,10 +17605,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="F487" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17667,10 +17634,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="F488" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17696,10 +17663,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="F489" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17725,10 +17692,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="F490" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17754,10 +17721,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F491" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17783,10 +17750,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="F492" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17812,10 +17779,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="F493" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17841,10 +17808,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="F494" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17870,10 +17837,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="F495" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="G495" t="n">
         <v>3</v>
@@ -17899,10 +17866,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="F496" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17928,10 +17895,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="F497" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17957,10 +17924,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="F498" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17986,10 +17953,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="F499" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -18015,10 +17982,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="F500" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18044,10 +18011,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="F501" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18073,10 +18040,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="F502" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18102,10 +18069,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="F503" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18131,10 +18098,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="F504" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18160,10 +18127,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="F505" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18189,10 +18156,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F506" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18218,10 +18185,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="F507" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18247,10 +18214,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="F508" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18276,10 +18243,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="F509" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18305,10 +18272,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="F510" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18334,10 +18301,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="F511" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18363,10 +18330,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="F512" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18392,10 +18359,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="F513" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18421,10 +18388,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="F514" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18450,10 +18417,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="F515" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18479,10 +18446,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="F516" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18508,10 +18475,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="F517" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18537,10 +18504,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="F518" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18566,10 +18533,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="F519" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18595,10 +18562,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="F520" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18624,10 +18591,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="F521" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18653,10 +18620,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="F522" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="G522" t="n">
         <v>3</v>
@@ -18682,10 +18649,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="F523" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18711,10 +18678,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="F524" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18740,10 +18707,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="F525" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18769,10 +18736,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="F526" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18798,10 +18765,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="F527" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18827,10 +18794,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="F528" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18856,10 +18823,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="F529" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18885,10 +18852,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="F530" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18914,10 +18881,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="F531" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18943,10 +18910,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="F532" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -18972,10 +18939,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="F533" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19001,10 +18968,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="F534" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19030,10 +18997,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="F535" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19059,10 +19026,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="F536" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="G536" t="n">
         <v>21</v>
@@ -19088,10 +19055,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="F537" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
